--- a/ig/nr-update-simplified-publish-narrative/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/nr-update-simplified-publish-narrative/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T15:09:52+00:00</t>
+    <t>2023-08-21T11:48:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
